--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
@@ -153,9 +153,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot</t>
-  </si>
-  <si>
     <t>priorités</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
   </si>
   <si>
-    <t>49. Ajouter un argument facetby2 à bmdplotwithgradient pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
-  </si>
-  <si>
     <t>50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
   </si>
   <si>
-    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment</t>
-  </si>
-  <si>
     <t>54. Mettre un message si quelquun fixe minBMD plus grand que la plus petite conc non nulle</t>
   </si>
   <si>
@@ -264,7 +255,25 @@
     <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend</t>
   </si>
   <si>
-    <t>57. ajout de labels au plot de bmdboot</t>
+    <t>49. Ajouter un argument facetby2 à bmdplotwithgradient et curvesplot pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
+  </si>
+  <si>
+    <t>58. ajouter une fonction trendplot (cf. article diuron)</t>
+  </si>
+  <si>
+    <t>A + ML</t>
+  </si>
+  <si>
+    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations</t>
+  </si>
+  <si>
+    <t>57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2</t>
+  </si>
+  <si>
+    <t>top priorités</t>
+  </si>
+  <si>
+    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items</t>
   </si>
 </sst>
 </file>
@@ -295,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +317,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,11 +338,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,12 +370,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -616,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -627,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -745,52 +799,52 @@
     </row>
     <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -801,38 +855,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.77734375" customWidth="1"/>
+    <col min="1" max="1" width="126.5546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
@@ -840,7 +897,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
@@ -848,7 +905,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
@@ -856,96 +913,108 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
+      <c r="A10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>66</v>
-      </c>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,27 +1041,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1094,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,6 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,19 +842,27 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,61 +974,56 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>63</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>60</v>
+      <c r="A18" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
@@ -678,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A46" sqref="A43:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,6 +865,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -873,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +983,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1016,14 +1024,6 @@
       <c r="A20" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -273,7 +273,7 @@
     <t>top priorités</t>
   </si>
   <si>
-    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items</t>
+    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
@@ -165,12 +165,6 @@
     <t>31. programmation défensive si nb d’items trop petit sur le plot de sensibilité par groupe –mais quoi faire exactement ? Quantile fait de l’interpolation linéaire et sort un résultat quoiqu’il arrive</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Faire une cheat sheet de DRomics – recto sur site de DRomics </t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot</t>
   </si>
   <si>
@@ -237,21 +231,12 @@
     <t>48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
   </si>
   <si>
-    <t>50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R</t>
-  </si>
-  <si>
     <t>51. Ajouter les mots clefs transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le package</t>
   </si>
   <si>
     <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
   </si>
   <si>
-    <t>54. Mettre un message si quelquun fixe minBMD plus grand que la plus petite conc non nulle</t>
-  </si>
-  <si>
-    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ?</t>
-  </si>
-  <si>
     <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend</t>
   </si>
   <si>
@@ -267,13 +252,28 @@
     <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations</t>
   </si>
   <si>
-    <t>57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2</t>
-  </si>
-  <si>
     <t>top priorités</t>
   </si>
   <si>
     <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32. Faire une cheat sheet de DRomics – recto à mettre sur site de DRomics </t>
+  </si>
+  <si>
+    <t>50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R. C'était déjà écrit. J'ai juste ajouté un passage à la ligne et l'ai mis aussi dans la cheat sheet.</t>
+  </si>
+  <si>
+    <t>54. Mettre un message si quelqu'un fixe minBMD plus grand que la plus petite conc non nulle</t>
+  </si>
+  <si>
+    <t>57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2 - j'ai fait une fonction bmdplot poru gérer cela</t>
+  </si>
+  <si>
+    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
+  </si>
+  <si>
+    <t>58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -393,6 +393,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A46" sqref="A43:A46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +696,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -809,57 +814,57 @@
     </row>
     <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -867,9 +872,49 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -881,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -948,81 +993,61 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1069,12 +1094,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1132,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18408" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
   </si>
   <si>
-    <t>51. Ajouter les mots clefs transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le package</t>
-  </si>
-  <si>
     <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
+  </si>
+  <si>
+    <t>51. Ajouter keywords : dose response modelling, benchmark dose (BMD), environmental risk assessment, transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le readme du GitHub et sur le site web de DRomics</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +864,7 @@
     </row>
     <row r="36" spans="1:2" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>30</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="38" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>30</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>30</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>30</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="41" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>30</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>30</v>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
@@ -1019,27 +1019,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\techdoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="done" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="short term" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="long term" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="evaluation of DRomics" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="done" sheetId="1" r:id="rId1"/>
+    <sheet name="short term" sheetId="2" r:id="rId2"/>
+    <sheet name="long term" sheetId="3" r:id="rId3"/>
+    <sheet name="evaluation of DRomics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,57 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t xml:space="preserve">task </t>
   </si>
   <si>
-    <t xml:space="preserve">person</t>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">1.Intégrer au package la fonction avec le gradient de couleurs (regarder si exemples acceptables dans buildex4package.R dans Dropbox\Micro-ERA\second_paper\DRomics_interpretation\Rscripts_metabolo\version3 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.Faire une fonction pour la représentation de la distribution de sensibilité des pathways</t>
+    <t>2.Faire une fonction pour la représentation de la distribution de sensibilité des pathways</t>
   </si>
   <si>
     <t xml:space="preserve">3.Inclure dans le package des exemples d’utilisation des fonctions d’aide à l’interprétation. Avec quel jeu de données annotés ? métabolo (changer jeu de données métabolo pour prendre le dernier – pas la peine) </t>
   </si>
   <si>
-    <t xml:space="preserve">4.Ajouter un check sur le nom des colonnes dans curvesplot et ecfplotwithdrcgradient</t>
+    <t>4.Ajouter un check sur le nom des colonnes dans curvesplot et ecfplotwithdrcgradient</t>
   </si>
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
   <si>
-    <t xml:space="preserve">6.changer divers détails sur shiny et package (couleur gradient, xlab gradient plot = BMD et non x, shapey changé en nom plus parlant (ex. mis dans la vigentte avec labs(shape = "")</t>
+    <t>6.changer divers détails sur shiny et package (couleur gradient, xlab gradient plot = BMD et non x, shapey changé en nom plus parlant (ex. mis dans la vigentte avec labs(shape = "")</t>
   </si>
   <si>
     <t xml:space="preserve">7.ajouter un argument nfirstitems dans print.itemselect + ligne de code pour les récupérer tous en exemple </t>
   </si>
   <si>
-    <t xml:space="preserve">8.Faire une fonction continuousanchoringdata</t>
+    <t>8.Faire une fonction continuousanchoringdata</t>
   </si>
   <si>
     <t xml:space="preserve">9.Faire une fonction continuousomicdata </t>
   </si>
   <si>
-    <t xml:space="preserve">10.Ecrire une vignette en .Rmd sur la base de la page d’aide DRomics.Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.Mettre dans le package un argument pour choisir entre AIC et BIC (voir si cela change quelque chose sur robustesse jeu de données IRSN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.Mettre dans une autre sortie les items sélectionnés mais non modélisés</t>
+    <t>10.Ecrire une vignette en .Rmd sur la base de la page d’aide DRomics.Rd</t>
+  </si>
+  <si>
+    <t>11.Mettre dans le package un argument pour choisir entre AIC et BIC (voir si cela change quelque chose sur robustesse jeu de données IRSN)</t>
+  </si>
+  <si>
+    <t>12.Mettre dans une autre sortie les items sélectionnés mais non modélisés</t>
   </si>
   <si>
     <t xml:space="preserve">13. Faire en sorte qu’on puisse mettre l’échelle de x en log sur les graphes </t>
   </si>
   <si>
-    <t xml:space="preserve">14. Faire une fonction qui plote des items avec ou sans fit suivant qu’un modèle a été fitté ou pas (y compris les non sélectionnés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. Ajouter dans l’appli shiny l’option continuousanchoringdata dans le step 1 et x_pseudo_log_transfo pour le plot du step 3</t>
+    <t>14. Faire une fonction qui plote des items avec ou sans fit suivant qu’un modèle a été fitté ou pas (y compris les non sélectionnés)</t>
+  </si>
+  <si>
+    <t>15. Ajouter dans l’appli shiny l’option continuousanchoringdata dans le step 1 et x_pseudo_log_transfo pour le plot du step 3</t>
   </si>
   <si>
     <r>
@@ -94,11 +98,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(visualize &lt;- FALSE # TRUE for manual tests with visualization of results)  à mettre comme dans fitdistrplus et mettre en entete des fichiers un nboot et nsample à des petites valeurs (ou grandes pour les changer en tests manuels : nbboot &lt;- 1001 ; nbboot &lt;- 10)</t>
+      <t>(visualize &lt;- FALSE # TRUE for manual tests with visualization of results)  à mettre comme dans fitdistrplus et mettre en entete des fichiers un nboot et nsample à des petites valeurs (ou grandes pour les changer en tests manuels : nbboot &lt;- 1001 ; nbboot &lt;- 10)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">17. Indiquer les items (ou avoir moyen de les retrouver) avec bmdplotwithgradient – mettre un exemple en utilisant les fonctionnalités actuelles FAIT avec add.label</t>
+    <t>17. Indiquer les items (ou avoir moyen de les retrouver) avec bmdplotwithgradient – mettre un exemple en utilisant les fonctionnalités actuelles FAIT avec add.label</t>
   </si>
   <si>
     <t xml:space="preserve">18. Mettre des exemples de graphes BMD en log à partir de Zhou sur les ex. du package + vignette </t>
@@ -119,7 +123,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -130,19 +134,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">21. Mettre un warning quand une seule ligne de données est entrée et indiquer qu’ils peuvent utiliser anchoringdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. ajouter BMR below or above control value (demande de Stefan) – BMRposition above_control, below_control – au final ajout de BMR.zSD zt BMR.xfold ajoutées qui donnent l'info.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Retravailler les sorties texte des print pour que lorsque l’on fait options(width = ??) ça fonctionne et retravailler la découpe des lignes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38. Remplacer tous les Gaussian error model par normal error model dans l’appli shiny et le package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39. Ajouter une fonction plotfit2pdf</t>
+    <t>21. Mettre un warning quand une seule ligne de données est entrée et indiquer qu’ils peuvent utiliser anchoringdata</t>
+  </si>
+  <si>
+    <t>22. ajouter BMR below or above control value (demande de Stefan) – BMRposition above_control, below_control – au final ajout de BMR.zSD zt BMR.xfold ajoutées qui donnent l'info.</t>
+  </si>
+  <si>
+    <t>34. Retravailler les sorties texte des print pour que lorsque l’on fait options(width = ??) ça fonctionne et retravailler la découpe des lignes.</t>
+  </si>
+  <si>
+    <t>38. Remplacer tous les Gaussian error model par normal error model dans l’appli shiny et le package</t>
+  </si>
+  <si>
+    <t>39. Ajouter une fonction plotfit2pdf</t>
   </si>
   <si>
     <r>
@@ -167,161 +171,146 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">41. dans shiny en step 2 mettre un bouton de récupération du vecteur des noms des items sélectionnés récupérables à partir de l’objet qu’on appelera s de sortie de itemselect par s$omicdata$item[s$selectindex]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42. dans shiny utiliser plotfit2pdf pour récupérer tous les plots du choix de l’utilisateur, en décalant l’ancien bouton de download des fits plus bas, juste au-dessus des plots, à droite des options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43. Ne pas ajuster les modèles à 5 par si nb de doses à 4 ou 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44. Programmation défensive sur nombre total de points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45. Ajouter l’AICc et voir son impact et peut-être le mettre en défaut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46. Refaire le tutoriel de l’appli shiny et peut-être le mettre ailleurs que dans le package. Réfléchir à un autre format plus facile à mettre à jour ; intégré à la vignette ? C'est ce qui a été fait au final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49. Ajouter un argument facetby2 à bmdplotwithgradient et curvesplot pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58. ajouter une fonction trendplot (cf. article diuron)</t>
+    <t>41. dans shiny en step 2 mettre un bouton de récupération du vecteur des noms des items sélectionnés récupérables à partir de l’objet qu’on appelera s de sortie de itemselect par s$omicdata$item[s$selectindex]</t>
+  </si>
+  <si>
+    <t>42. dans shiny utiliser plotfit2pdf pour récupérer tous les plots du choix de l’utilisateur, en décalant l’ancien bouton de download des fits plus bas, juste au-dessus des plots, à droite des options</t>
+  </si>
+  <si>
+    <t>43. Ne pas ajuster les modèles à 5 par si nb de doses à 4 ou 5</t>
+  </si>
+  <si>
+    <t>44. Programmation défensive sur nombre total de points</t>
+  </si>
+  <si>
+    <t>45. Ajouter l’AICc et voir son impact et peut-être le mettre en défaut</t>
+  </si>
+  <si>
+    <t>46. Refaire le tutoriel de l’appli shiny et peut-être le mettre ailleurs que dans le package. Réfléchir à un autre format plus facile à mettre à jour ; intégré à la vignette ? C'est ce qui a été fait au final</t>
+  </si>
+  <si>
+    <t>49. Ajouter un argument facetby2 à bmdplotwithgradient et curvesplot pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>58. ajouter une fonction trendplot (cf. article diuron)</t>
   </si>
   <si>
     <t xml:space="preserve">32. Faire une cheat sheet de DRomics – recto à mettre sur site de DRomics </t>
   </si>
   <si>
-    <t xml:space="preserve">50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R. C'était déjà écrit. J'ai juste ajouté un passage à la ligne et l'ai mis aussi dans la cheat sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51. Ajouter keywords : dose response modelling, benchmark dose (BMD), environmental risk assessment, transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le readme du GitHub et sur le site web de DRomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A + ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54. Mettre un message si quelqu'un fixe minBMD plus grand que la plus petite conc non nulle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2 - j'ai fait une fonction bmdplot poru gérer cela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priorités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. Regarder si rlog et vst laissent les 0 à une valeur commune (ties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top priorités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. Trouver un sous jeu de données exemple ou on arrive à calculer les IC pour des courbes probit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. Tester sur de mauvais jeux de données la programmation défensive faite sur les fonctions d’importation des données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. Ajouter une fonction proteomicdata avec ex. IRSN quand on aura un jeu de données avec assez de doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27. Retravailler le line.size de bmdplotwithgradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. Retravailler le modèle sigmoide, Lprobit et Gausprobit avec e = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47. Utilisation du vartrend pour alerte : pb avec microarray very small sample data A DISCUTER AVEC ELISE !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. Calculer une BMD bis de l’autre côté du contrôle ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. programmation défensive si nb d’items trop petit sur le plot de sensibilité par groupe –mais quoi faire exactement ? Quantile fait de l’interpolation linéaire et sort un résultat quoiqu’il arrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. Regarder que faire avec des données de comptages de metabarcoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. Voir ce qu’on peut faire avec des données CT de RTQPCR (2ème phase après screening RNAseq) – mettre commentaire sur échelle (log delta Ct ?) sur sur normalisation avec les gènes de ménage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester la robustesse des BMD à une dégradation du plan d’expérience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprendre un jeu de données de la littérature sur lequel une approche clustering a été utilisée et comparer avec notre approche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester FASTBMD et BMDExpress sur des jeux de données sans 0 et sans réplicat (OK sur DRomics)</t>
+    <t>50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R. C'était déjà écrit. J'ai juste ajouté un passage à la ligne et l'ai mis aussi dans la cheat sheet.</t>
+  </si>
+  <si>
+    <t>51. Ajouter keywords : dose response modelling, benchmark dose (BMD), environmental risk assessment, transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le readme du GitHub et sur le site web de DRomics</t>
+  </si>
+  <si>
+    <t>A + ML</t>
+  </si>
+  <si>
+    <t>54. Mettre un message si quelqu'un fixe minBMD plus grand que la plus petite conc non nulle</t>
+  </si>
+  <si>
+    <t>57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2 - j'ai fait une fonction bmdplot poru gérer cela</t>
+  </si>
+  <si>
+    <t>58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>priorités</t>
+  </si>
+  <si>
+    <t>23. Regarder si rlog et vst laissent les 0 à une valeur commune (ties)</t>
+  </si>
+  <si>
+    <t>top priorités</t>
+  </si>
+  <si>
+    <t>24. Trouver un sous jeu de données exemple ou on arrive à calculer les IC pour des courbes probit</t>
+  </si>
+  <si>
+    <t>25. Tester sur de mauvais jeux de données la programmation défensive faite sur les fonctions d’importation des données</t>
+  </si>
+  <si>
+    <t>26. Ajouter une fonction proteomicdata avec ex. IRSN quand on aura un jeu de données avec assez de doses</t>
+  </si>
+  <si>
+    <t>27. Retravailler le line.size de bmdplotwithgradient</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
+  </si>
+  <si>
+    <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot</t>
+  </si>
+  <si>
+    <t>37. Retravailler le modèle sigmoide, Lprobit et Gausprobit avec e = 0</t>
+  </si>
+  <si>
+    <t>47. Utilisation du vartrend pour alerte : pb avec microarray very small sample data A DISCUTER AVEC ELISE !</t>
+  </si>
+  <si>
+    <t>48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
+  </si>
+  <si>
+    <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
+  </si>
+  <si>
+    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations</t>
+  </si>
+  <si>
+    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
+  </si>
+  <si>
+    <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend</t>
+  </si>
+  <si>
+    <t>29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
+  </si>
+  <si>
+    <t>30. Calculer une BMD bis de l’autre côté du contrôle ?</t>
+  </si>
+  <si>
+    <t>31. programmation défensive si nb d’items trop petit sur le plot de sensibilité par groupe –mais quoi faire exactement ? Quantile fait de l’interpolation linéaire et sort un résultat quoiqu’il arrive</t>
+  </si>
+  <si>
+    <t>35. Regarder que faire avec des données de comptages de metabarcoding</t>
+  </si>
+  <si>
+    <t>36. Voir ce qu’on peut faire avec des données CT de RTQPCR (2ème phase après screening RNAseq) – mettre commentaire sur échelle (log delta Ct ?) sur sur normalisation avec les gènes de ménage.</t>
+  </si>
+  <si>
+    <t>Tester la robustesse des BMD à une dégradation du plan d’expérience</t>
+  </si>
+  <si>
+    <t>Reprendre un jeu de données de la littérature sur lequel une approche clustering a été utilisée et comparer avec notre approche</t>
+  </si>
+  <si>
+    <t>Tester FASTBMD et BMDExpress sur des jeux de données sans 0 et sans réplicat (OK sur DRomics)</t>
+  </si>
+  <si>
+    <t>59. enlever l'argument sigmoid.model de drcfit (donc l'utilisation possible du modèle log_probit, mais sans l'enlever completement pour nous) car c'est de nature à perturber l'utilisateur qui croit qu'il eut choisir le modele (ex. Stefan)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,7 +320,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -339,7 +328,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,126 +359,85 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -548,196 +496,470 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="113.78"/>
+    <col min="1" max="1" width="113.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -745,15 +967,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" s="6" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -761,7 +983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -769,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -777,7 +999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -785,7 +1007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -793,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -802,79 +1024,71 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="126.56"/>
+    <col min="1" max="1" width="126.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
@@ -882,7 +1096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="true" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
@@ -890,159 +1104,145 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78"/>
+    <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="110.11"/>
+    <col min="1" max="1" width="110.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>59. enlever l'argument sigmoid.model de drcfit (donc l'utilisation possible du modèle log_probit, mais sans l'enlever completement pour nous) car c'est de nature à perturber l'utilisateur qui croit qu'il eut choisir le modele (ex. Stefan)</t>
+  </si>
+  <si>
+    <t>60. add of the Rager in situ data set</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,7 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -430,6 +439,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -780,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,6 +1036,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1033,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,12 +1168,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -240,9 +240,6 @@
     <t>26. Ajouter une fonction proteomicdata avec ex. IRSN quand on aura un jeu de données avec assez de doses</t>
   </si>
   <si>
-    <t>27. Retravailler le line.size de bmdplotwithgradient</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>60. add of the Rager in situ data set</t>
+  </si>
+  <si>
+    <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
+  </si>
+  <si>
+    <t>61. ajouter l'argument range aux fonctions de plot des données importées</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +377,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -402,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,10 +1053,18 @@
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1054,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,23 +1132,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>51</v>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -1135,42 +1155,45 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>61</v>
+      <c r="A15" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>71</v>
+      <c r="A16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1202,27 +1225,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1246,17 +1269,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -261,9 +261,6 @@
     <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
   </si>
   <si>
-    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations</t>
-  </si>
-  <si>
     <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
   </si>
   <si>
@@ -304,6 +301,15 @@
   </si>
   <si>
     <t>61. ajouter l'argument range aux fonctions de plot des données importées</t>
+  </si>
+  <si>
+    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max</t>
+  </si>
+  <si>
+    <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
+  </si>
+  <si>
+    <t>62. ajouter un etst sur les outliers pour les cas excessifs cf. transcripto rainettes 2018</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1059,7 @@
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>35</v>
@@ -1061,7 +1067,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>51</v>
@@ -1075,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
@@ -1167,12 +1173,12 @@
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1180,20 +1186,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1225,27 +1241,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1269,17 +1285,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -309,7 +309,13 @@
     <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
   </si>
   <si>
-    <t>62. ajouter un etst sur les outliers pour les cas excessifs cf. transcripto rainettes 2018</t>
+    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (basé sur distance de Cook si pas trop long à calculer dans drcfit ou après ?)</t>
+  </si>
+  <si>
+    <t>64 sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro, décidez de ce que l'on fait si y0 est estimé en dehors de la gamme du signal observé -&gt; impact sur BMD pouvant être fort …. !</t>
+  </si>
+  <si>
+    <t>65 réfléchir à la possibilité (ou non) de ne pas faire de correction BH dans itemselect (cf. sélection sur p-valuee t non q-value dans Rager 2017)</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,14 +1208,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -309,13 +309,19 @@
     <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
   </si>
   <si>
-    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (basé sur distance de Cook si pas trop long à calculer dans drcfit ou après ?)</t>
-  </si>
-  <si>
-    <t>64 sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro, décidez de ce que l'on fait si y0 est estimé en dehors de la gamme du signal observé -&gt; impact sur BMD pouvant être fort …. !</t>
-  </si>
-  <si>
-    <t>65 réfléchir à la possibilité (ou non) de ne pas faire de correction BH dans itemselect (cf. sélection sur p-valuee t non q-value dans Rager 2017)</t>
+    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar))</t>
+  </si>
+  <si>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)</t>
+  </si>
+  <si>
+    <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur d'indiquer une valeur seuil en dessous de laquelle on considère que la dose est négligeable, du niveau du contrôle et fixer les doses inférieures ou égales à 0</t>
+  </si>
+  <si>
+    <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
+  </si>
+  <si>
+    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,7 +1214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -1231,10 +1237,20 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -303,9 +303,6 @@
     <t>61. ajouter l'argument range aux fonctions de plot des données importées</t>
   </si>
   <si>
-    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max</t>
-  </si>
-  <si>
     <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
   </si>
   <si>
@@ -315,13 +312,16 @@
     <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)</t>
   </si>
   <si>
-    <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur d'indiquer une valeur seuil en dessous de laquelle on considère que la dose est négligeable, du niveau du contrôle et fixer les doses inférieures ou égales à 0</t>
-  </si>
-  <si>
     <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
   </si>
   <si>
     <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC</t>
+  </si>
+  <si>
+    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max (see 66)</t>
+  </si>
+  <si>
+    <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur de mettre à 0 les doses qu'ils considère correspondre au niveau de base (background) pour éviter que la BMD soit calculée par extrapolation san contrôle du modèle par les données à la dose 0</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +399,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -455,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -476,6 +479,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,10 +1076,10 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1083,6 +1089,27 @@
       </c>
       <c r="B45" s="10" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1093,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1178,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1185,72 +1212,54 @@
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>73</v>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1321,21 +1330,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="110.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="110.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>67</v>
       </c>
     </row>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1103,9 @@
       <c r="A47" s="21" t="s">
         <v>77</v>
       </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
@@ -1122,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
   </si>
   <si>
-    <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend</t>
-  </si>
-  <si>
     <t>29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>59. enlever l'argument sigmoid.model de drcfit (donc l'utilisation possible du modèle log_probit, mais sans l'enlever completement pour nous) car c'est de nature à perturber l'utilisateur qui croit qu'il eut choisir le modele (ex. Stefan)</t>
   </si>
   <si>
-    <t>60. add of the Rager in situ data set</t>
-  </si>
-  <si>
     <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
     <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar))</t>
   </si>
   <si>
-    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)</t>
-  </si>
-  <si>
     <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
   </si>
   <si>
@@ -322,6 +313,20 @@
   </si>
   <si>
     <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur de mettre à 0 les doses qu'ils considère correspondre au niveau de base (background) pour éviter que la BMD soit calculée par extrapolation san contrôle du modèle par les données à la dose 0</t>
+  </si>
+  <si>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
+TO DISCUSS ALL TOGETHER BEFORE</t>
+  </si>
+  <si>
+    <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend - 
+pas raisonnable - plutôt faire du LOO et donner comme indice le % de fois ou la même trend est donnés
+on est content si c'est 100%</t>
+  </si>
+  <si>
+    <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
+Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
+A DISCUTER !!!</t>
   </si>
 </sst>
 </file>
@@ -834,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1082,7 @@
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>35</v>
@@ -1085,7 +1090,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>51</v>
@@ -1093,7 +1098,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>35</v>
@@ -1101,7 +1106,7 @@
     </row>
     <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1109,7 +1114,7 @@
     </row>
     <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
@@ -1125,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,19 +1226,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1241,7 +1246,7 @@
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1249,12 +1254,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1262,7 +1267,7 @@
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1294,27 +1299,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1338,17 +1343,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\techdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -306,9 +306,6 @@
     <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
   </si>
   <si>
-    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC</t>
-  </si>
-  <si>
     <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max (see 66)</t>
   </si>
   <si>
@@ -327,12 +324,15 @@
     <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
 Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
 A DISCUTER !!!</t>
+  </si>
+  <si>
+    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -837,18 +837,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,167 +856,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>67</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
@@ -1104,19 +1104,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="B48" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1128,18 +1136,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="126.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -1193,32 +1201,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1226,17 +1234,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>71</v>
       </c>
@@ -1252,22 +1260,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1284,12 +1287,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1297,27 +1300,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1336,22 +1339,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="110.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -328,11 +328,17 @@
   <si>
     <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
   </si>
+  <si>
+    <t>68. ajouter un échantillon du jeu de données de Rager 2017 qu'on appelera arsenic</t>
+  </si>
+  <si>
+    <t>69. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,16 +845,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,167 +862,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>67</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>68</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>72</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
         <v>73</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>74</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>78</v>
       </c>
@@ -1136,18 +1142,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="126.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="126.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -1201,32 +1207,32 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1234,17 +1240,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>71</v>
       </c>
@@ -1260,17 +1266,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1287,12 +1303,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1300,27 +1316,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1339,22 +1355,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="110.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="110.109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -333,6 +333,13 @@
   </si>
   <si>
     <t>69. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC</t>
+  </si>
+  <si>
+    <t>70. Régler le message d'erreur dans le bootstrap sur jeu de données Olivier 
+Error in if (y0 &gt; threshold &amp; threshold &gt; yext &amp; xext != 0) { : 
+  valeur manquante là où TRUE / FALSE est requis
+De plus : There were 50 or more warnings (use warnings() to see the first 50)
+en attendant je remets les enablesfequa0 à FALSE par défaut</t>
   </si>
 </sst>
 </file>
@@ -363,7 +370,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +425,12 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -446,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -493,6 +506,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,6 +1303,11 @@
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -294,9 +294,6 @@
     <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
   </si>
   <si>
-    <t>61. ajouter l'argument range aux fonctions de plot des données importées</t>
-  </si>
-  <si>
     <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
   </si>
   <si>
@@ -310,10 +307,6 @@
   </si>
   <si>
     <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur de mettre à 0 les doses qu'ils considère correspondre au niveau de base (background) pour éviter que la BMD soit calculée par extrapolation san contrôle du modèle par les données à la dose 0</t>
-  </si>
-  <si>
-    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
-TO DISCUSS ALL TOGETHER BEFORE</t>
   </si>
   <si>
     <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend - 
@@ -321,25 +314,25 @@
 on est content si c'est 100%</t>
   </si>
   <si>
+    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
+  </si>
+  <si>
+    <t>68. ajouter un échantillon du jeu de données de Rager 2017 qu'on appelera arsenic</t>
+  </si>
+  <si>
+    <t>61. ajouter l'argument range (à passer à boxplot) aux fonctions de plot des données importées</t>
+  </si>
+  <si>
+    <t>69. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
+  </si>
+  <si>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
+TO DISCUSS ALL TOGETHER BEFORE acompagner les utilisateurs à un cgt dans la prochane release - message au chargement du package !</t>
+  </si>
+  <si>
     <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
 Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
-A DISCUTER !!!</t>
-  </si>
-  <si>
-    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
-  </si>
-  <si>
-    <t>68. ajouter un échantillon du jeu de données de Rager 2017 qu'on appelera arsenic</t>
-  </si>
-  <si>
-    <t>69. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC</t>
-  </si>
-  <si>
-    <t>70. Régler le message d'erreur dans le bootstrap sur jeu de données Olivier 
-Error in if (y0 &gt; threshold &amp; threshold &gt; yext &amp; xext != 0) { : 
-  valeur manquante là où TRUE / FALSE est requis
-De plus : There were 50 or more warnings (use warnings() to see the first 50)
-en attendant je remets les enablesfequa0 à FALSE par défaut</t>
+NON : AJOUT d'un sous jeu de données d'Olivier en RNAseqinsitusample.txt + test des modifs in situ sur sa base</t>
   </si>
 </sst>
 </file>
@@ -370,7 +363,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +418,6 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -459,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -506,9 +493,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1104,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>35</v>
@@ -1128,7 +1112,7 @@
     </row>
     <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1136,7 +1120,7 @@
     </row>
     <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
@@ -1144,7 +1128,7 @@
     </row>
     <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -1158,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,17 +1242,17 @@
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1276,7 +1260,7 @@
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1284,12 +1268,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1297,18 +1281,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -317,13 +317,7 @@
     <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
   </si>
   <si>
-    <t>68. ajouter un échantillon du jeu de données de Rager 2017 qu'on appelera arsenic</t>
-  </si>
-  <si>
     <t>61. ajouter l'argument range (à passer à boxplot) aux fonctions de plot des données importées</t>
-  </si>
-  <si>
-    <t>69. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
   </si>
   <si>
     <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
@@ -333,6 +327,9 @@
     <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
 Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
 NON : AJOUT d'un sous jeu de données d'Olivier en RNAseqinsitusample.txt + test des modifs in situ sur sa base</t>
+  </si>
+  <si>
+    <t>68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
   </si>
 </sst>
 </file>
@@ -843,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,6 +1131,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1142,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,55 +1258,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
+  </si>
+  <si>
+    <t>69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplcats par groupe</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -1157,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1285,6 +1288,11 @@
       </c>
       <c r="B17" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -320,10 +320,6 @@
     <t>61. ajouter l'argument range (à passer à boxplot) aux fonctions de plot des données importées</t>
   </si>
   <si>
-    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
-TO DISCUSS ALL TOGETHER BEFORE acompagner les utilisateurs à un cgt dans la prochane release - message au chargement du package !</t>
-  </si>
-  <si>
     <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
 Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
 NON : AJOUT d'un sous jeu de données d'Olivier en RNAseqinsitusample.txt + test des modifs in situ sur sa base</t>
@@ -332,7 +328,12 @@
     <t>68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
   </si>
   <si>
-    <t>69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplcats par groupe</t>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
+Non car personne ne connait en ecotox, mais a mentionner dans l'aide</t>
+  </si>
+  <si>
+    <t>69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplicats par groupe
+interdire anova si trop de doses avec un seul réplicat (ex. superieur à 50%)</t>
   </si>
 </sst>
 </file>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1137,7 @@
     </row>
     <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>35</v>
@@ -1144,7 +1145,7 @@
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -1160,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1271,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
@@ -1278,21 +1279,27 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="20" t="s">
         <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
   </si>
   <si>
-    <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)</t>
-  </si>
-  <si>
     <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar))</t>
   </si>
   <si>
@@ -328,12 +325,16 @@
     <t>68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
   </si>
   <si>
-    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
-Non car personne ne connait en ecotox, mais a mentionner dans l'aide</t>
-  </si>
-  <si>
     <t>69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplicats par groupe
 interdire anova si trop de doses avec un seul réplicat (ex. superieur à 50%)</t>
+  </si>
+  <si>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
+Non car personne ne connait en ecotox, mais a mentionner dans l'aide - FAIT dans ade de itemselect</t>
+  </si>
+  <si>
+    <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)
+not possible -&gt; residuals calculated within the function called in the loop</t>
   </si>
 </sst>
 </file>
@@ -364,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFF9900"/>
       </patternFill>
@@ -447,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -490,10 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -844,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,15 +1097,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>72</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1121,7 +1113,7 @@
     </row>
     <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
@@ -1129,7 +1121,7 @@
     </row>
     <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -1137,7 +1129,7 @@
     </row>
     <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>35</v>
@@ -1145,10 +1137,34 @@
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B51" t="s">
-        <v>35</v>
+      <c r="B53" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,12 +1275,12 @@
     </row>
     <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1272,41 +1288,27 @@
     </row>
     <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18"/>
     </row>
     <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-    </row>
-    <row r="20" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A19" s="9"/>
+      <c r="B19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -335,6 +335,15 @@
   <si>
     <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)
 not possible -&gt; residuals calculated within the function called in the loop</t>
+  </si>
+  <si>
+    <t>70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018)</t>
+  </si>
+  <si>
+    <t>71. put an example to help the formating of data especially in a R object</t>
+  </si>
+  <si>
+    <t>72. Add a function associated with sensitivityplot to get the numrical summaries and to do other plots (boxplots)</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +423,12 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -442,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -486,6 +501,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -1177,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,16 +1313,26 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="21" t="s">
+        <v>82</v>
+      </c>
       <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18"/>
+      <c r="A18" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\Git_DRomics\DRomics\share\techdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -261,9 +261,6 @@
     <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
   </si>
   <si>
-    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans senitivityplot() - A COMPLETER ?</t>
-  </si>
-  <si>
     <t>29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
   </si>
   <si>
@@ -343,13 +340,34 @@
     <t>71. put an example to help the formating of data especially in a R object</t>
   </si>
   <si>
-    <t>72. Add a function associated with sensitivityplot to get the numrical summaries and to do other plots (boxplots)</t>
+    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans sensitivityplot() - A COMPLETER ?</t>
+  </si>
+  <si>
+    <t>72. Add a function associated with sensitivityplot to get the numerical summaries and to do other plots (boxplots)</t>
+  </si>
+  <si>
+    <t>73. intégrer la fonction selectgroups au package</t>
+  </si>
+  <si>
+    <t>74. corriger le passage en transparence dans sensitivityplot quand on a la médiane sans l'IC</t>
+  </si>
+  <si>
+    <t>77. ajouter une fonction et calcul de correlation non signée 2 à 2 des courbes fittées DR au sein de chaque groupe et un graphe associé</t>
+  </si>
+  <si>
+    <t>78. ajouter une méthode de clustering type WGCNA basée sur cette pairwise unsigned correlation</t>
+  </si>
+  <si>
+    <t>75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée</t>
+  </si>
+  <si>
+    <t>76. modifier la fonction curvesplot pour ajouter une normalisation sur maxydiff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -506,6 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,12 +879,12 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,167 +892,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1041,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1057,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1065,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1089,7 +1108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1097,89 +1116,89 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="B53" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>51</v>
@@ -1193,18 +1212,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.5546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="126.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1226,7 +1245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1242,7 +1261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -1258,75 +1277,81 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>83</v>
       </c>
@@ -1334,9 +1359,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19"/>
+    <row r="19" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1352,12 +1415,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1365,29 +1428,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1404,24 +1467,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="110.140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7A003-34D7-478F-B8F6-E471C2A9629D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -363,11 +364,23 @@
   <si>
     <t>76. modifier la fonction curvesplot pour ajouter une normalisation sur maxydiff</t>
   </si>
+  <si>
+    <t>79. modification of examples for DRomicsInterpreter by adding BMD_xfold</t>
+  </si>
+  <si>
+    <t>80. find a way to give an example in the DRomicsInterpreter shiny app</t>
+  </si>
+  <si>
+    <t>81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82. Implement a way to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,19 +885,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,167 +905,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>66</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>67</v>
       </c>
@@ -1132,7 +1145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>69</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
         <v>70</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>71</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>73</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>75</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>76</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>78</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>77</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>79</v>
       </c>
@@ -1211,19 +1224,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="126.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="126.54296875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -1234,7 +1247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
@@ -1253,7 +1266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +1274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -1277,27 +1290,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>82</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>72</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
         <v>74</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>68</v>
       </c>
@@ -1337,7 +1350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>80</v>
       </c>
@@ -1345,13 +1358,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>83</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>84</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>85</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>88</v>
       </c>
@@ -1383,7 +1396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>89</v>
       </c>
@@ -1391,14 +1404,46 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>87</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1408,19 +1453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1428,27 +1473,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -1460,29 +1505,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="110.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="110.1796875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>65</v>
       </c>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7A003-34D7-478F-B8F6-E471C2A9629D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC5E4D-D3B8-41EB-B489-3D46E737BBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t xml:space="preserve">82. Implement a way to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling </t>
+  </si>
+  <si>
+    <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot</t>
+  </si>
+  <si>
+    <t>84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,6 +1450,22 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AC5E4D-D3B8-41EB-B489-3D46E737BBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B5304-E7EB-4017-B9A2-ADAEEC2CEF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -292,9 +292,6 @@
     <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
   </si>
   <si>
-    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar))</t>
-  </si>
-  <si>
     <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
   </si>
   <si>
@@ -335,18 +332,9 @@
 not possible -&gt; residuals calculated within the function called in the loop</t>
   </si>
   <si>
-    <t>70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018)</t>
-  </si>
-  <si>
-    <t>71. put an example to help the formating of data especially in a R object</t>
-  </si>
-  <si>
     <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans sensitivityplot() - A COMPLETER ?</t>
   </si>
   <si>
-    <t>72. Add a function associated with sensitivityplot to get the numerical summaries and to do other plots (boxplots)</t>
-  </si>
-  <si>
     <t>73. intégrer la fonction selectgroups au package</t>
   </si>
   <si>
@@ -359,12 +347,6 @@
     <t>78. ajouter une méthode de clustering type WGCNA basée sur cette pairwise unsigned correlation</t>
   </si>
   <si>
-    <t>75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée</t>
-  </si>
-  <si>
-    <t>76. modifier la fonction curvesplot pour ajouter une normalisation sur maxydiff</t>
-  </si>
-  <si>
     <t>79. modification of examples for DRomicsInterpreter by adding BMD_xfold</t>
   </si>
   <si>
@@ -374,13 +356,37 @@
     <t>81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
   </si>
   <si>
-    <t xml:space="preserve">82. Implement a way to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling </t>
-  </si>
-  <si>
     <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot</t>
   </si>
   <si>
     <t>84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
+  </si>
+  <si>
+    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié</t>
+  </si>
+  <si>
+    <t>70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018) - too complex !!!</t>
+  </si>
+  <si>
+    <t>71. put an example to help the formating of data especially in a R object or write a function to do that from count matrix and dose</t>
+  </si>
+  <si>
+    <t>72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots)</t>
+  </si>
+  <si>
+    <t>ML puis A</t>
+  </si>
+  <si>
+    <t>75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée - penser à mettre à jour informations_bmdcalc_results.txt</t>
+  </si>
+  <si>
+    <t>76. modifier la fonction curvesplot pour ajouter une normalisation sur maxydiff + option ajoutée à Shiny</t>
+  </si>
+  <si>
+    <t>82. Implement a way to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling using ComBat or ComBatseq from sva package (specified as suggested in the description as for parallel computation)</t>
+  </si>
+  <si>
+    <t>ML puis A ?</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,6 +550,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,7 +1163,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>35</v>
@@ -1161,7 +1171,7 @@
     </row>
     <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1169,7 +1179,7 @@
     </row>
     <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
@@ -1177,7 +1187,7 @@
     </row>
     <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -1185,7 +1195,7 @@
     </row>
     <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>35</v>
@@ -1193,7 +1203,7 @@
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -1201,7 +1211,7 @@
     </row>
     <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>35</v>
@@ -1209,7 +1219,7 @@
     </row>
     <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>35</v>
@@ -1217,7 +1227,7 @@
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>51</v>
@@ -1233,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1288,11 +1298,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="23" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1326,7 +1336,7 @@
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1334,7 +1344,7 @@
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1342,7 +1352,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -1350,29 +1360,31 @@
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="17"/>
+      <c r="A17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1380,23 +1392,23 @@
     </row>
     <row r="19" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>35</v>
@@ -1404,15 +1416,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>35</v>
@@ -1420,7 +1432,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>35</v>
@@ -1428,7 +1440,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1436,25 +1448,31 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>93</v>
+      <c r="A27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>51</v>
@@ -1462,10 +1480,10 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B5304-E7EB-4017-B9A2-ADAEEC2CEF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BEC5E2-674D-462B-884F-006E795192DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -356,9 +356,6 @@
     <t>81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
   </si>
   <si>
-    <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot</t>
-  </si>
-  <si>
     <t>84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
   </si>
   <si>
@@ -380,13 +377,19 @@
     <t>75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée - penser à mettre à jour informations_bmdcalc_results.txt</t>
   </si>
   <si>
-    <t>76. modifier la fonction curvesplot pour ajouter une normalisation sur maxydiff + option ajoutée à Shiny</t>
-  </si>
-  <si>
-    <t>82. Implement a way to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling using ComBat or ComBatseq from sva package (specified as suggested in the description as for parallel computation)</t>
-  </si>
-  <si>
-    <t>ML puis A ?</t>
+    <t>ML +A</t>
+  </si>
+  <si>
+    <t>76. modifier la fonction curvesplot et bmdplotwithgradient pour ajouter une normalisation sur maxydiff + option ajoutée à Shiny</t>
+  </si>
+  <si>
+    <t>82. Give an example to show how to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling using ComBat or ComBatseq from sva package (specified as suggested in the description as for parallel computation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML </t>
+  </si>
+  <si>
+    <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot (cf. fig vignette 3.3) - pb ggplot</t>
   </si>
 </sst>
 </file>
@@ -902,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,6 +1236,30 @@
         <v>51</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1241,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,7 +1387,7 @@
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1368,7 +1395,7 @@
     </row>
     <row r="16" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>51</v>
@@ -1376,7 +1403,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>35</v>
@@ -1384,31 +1411,31 @@
     </row>
     <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>94</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>35</v>
@@ -1416,74 +1443,50 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BEC5E2-674D-462B-884F-006E795192DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182DE02C-4373-4B71-B07D-AD9A39A1FB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -905,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:B57"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,6 +1260,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1268,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1401,91 +1417,75 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>82</v>
+      <c r="A20" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>35</v>
+      <c r="A21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
         <v>92</v>
       </c>
     </row>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182DE02C-4373-4B71-B07D-AD9A39A1FB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B67C6-D75C-4A72-8352-CBFE600AB279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -247,9 +247,6 @@
     <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
   </si>
   <si>
-    <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot</t>
-  </si>
-  <si>
     <t>37. Retravailler le modèle sigmoide, Lprobit et Gausprobit avec e = 0</t>
   </si>
   <si>
@@ -390,6 +387,12 @@
   </si>
   <si>
     <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot (cf. fig vignette 3.3) - pb ggplot</t>
+  </si>
+  <si>
+    <t>trop complexe</t>
+  </si>
+  <si>
+    <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot cf. point 61 fait</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,9 +557,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:B59"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,7 +1155,7 @@
     </row>
     <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>35</v>
@@ -1158,7 +1163,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>51</v>
@@ -1166,7 +1171,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>35</v>
@@ -1174,7 +1179,7 @@
     </row>
     <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -1182,7 +1187,7 @@
     </row>
     <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>35</v>
@@ -1190,7 +1195,7 @@
     </row>
     <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -1198,7 +1203,7 @@
     </row>
     <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>35</v>
@@ -1206,7 +1211,7 @@
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
         <v>35</v>
@@ -1214,7 +1219,7 @@
     </row>
     <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>35</v>
@@ -1222,7 +1227,7 @@
     </row>
     <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>35</v>
@@ -1230,7 +1235,7 @@
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>51</v>
@@ -1238,7 +1243,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>51</v>
@@ -1246,15 +1251,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>35</v>
@@ -1262,7 +1267,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>35</v>
@@ -1270,10 +1275,23 @@
     </row>
     <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>97</v>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1324,6 +1342,9 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
+      <c r="D3" s="26" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -1349,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -1359,139 +1380,126 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>57</v>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>71</v>
+      <c r="A13" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
-        <v>89</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>95</v>
+      <c r="A18" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A20" s="21" t="s">
         <v>84</v>
       </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1518,27 +1526,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1562,17 +1570,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B67C6-D75C-4A72-8352-CBFE600AB279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07155AFB-5866-4B6B-BBED-FBA1C8171FE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -356,18 +356,12 @@
     <t>84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
   </si>
   <si>
-    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié</t>
-  </si>
-  <si>
     <t>70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018) - too complex !!!</t>
   </si>
   <si>
     <t>71. put an example to help the formating of data especially in a R object or write a function to do that from count matrix and dose</t>
   </si>
   <si>
-    <t>72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots)</t>
-  </si>
-  <si>
     <t>ML puis A</t>
   </si>
   <si>
@@ -393,6 +387,15 @@
   </si>
   <si>
     <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot cf. point 61 fait</t>
+  </si>
+  <si>
+    <t>85. suivant</t>
+  </si>
+  <si>
+    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié et réglé en partie par choix de la méthode de transfo à vst si nb samples &gt; 30 (cf. Love)</t>
+  </si>
+  <si>
+    <t>72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots) - impossible - write a function sensitivitycalc that will be called internally by sensitivityplot</t>
   </si>
 </sst>
 </file>
@@ -910,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,12 +1257,12 @@
         <v>79</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>35</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>35</v>
@@ -1275,10 +1278,10 @@
     </row>
     <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -1291,7 +1294,31 @@
     </row>
     <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,7 +1370,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1409,9 +1436,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>87</v>
+    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1419,15 +1446,15 @@
     </row>
     <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1435,66 +1462,47 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>81</v>
+      <c r="A17" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>83</v>
+      <c r="A18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07155AFB-5866-4B6B-BBED-FBA1C8171FE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24692D0A-84F9-480C-BDA2-BD6A22EE7626}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="105">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -389,13 +389,25 @@
     <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot cf. point 61 fait</t>
   </si>
   <si>
-    <t>85. suivant</t>
-  </si>
-  <si>
     <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié et réglé en partie par choix de la méthode de transfo à vst si nb samples &gt; 30 (cf. Love)</t>
   </si>
   <si>
     <t>72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots) - impossible - write a function sensitivitycalc that will be called internally by sensitivityplot</t>
+  </si>
+  <si>
+    <t>ML prototype in the share</t>
+  </si>
+  <si>
+    <t>85. add an example in the vignette where the need is obvious to work on log scale for bmdplot, sensitivity plot….</t>
+  </si>
+  <si>
+    <t>86. Add on the Dromics web page an introduction of the functions to help biological interpretation</t>
+  </si>
+  <si>
+    <t>87. change the figs in the cheat sheet using new options, new terminolgy in coherence to the one adopted in DRomicsIntepreter (biological group, experimental level) and add new functions</t>
+  </si>
+  <si>
+    <t>A et ML</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1438,7 +1450,7 @@
     </row>
     <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -1454,7 +1466,7 @@
     </row>
     <row r="15" spans="1:4" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1465,7 +1477,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1501,8 +1513,27 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>98</v>
+      <c r="A21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="4005" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="done" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="short term" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="long term" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="evaluation of DRomics" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="done" sheetId="1" r:id="rId1"/>
+    <sheet name="short term" sheetId="2" r:id="rId2"/>
+    <sheet name="long term" sheetId="3" r:id="rId3"/>
+    <sheet name="evaluation of DRomics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,52 +32,52 @@
     <t xml:space="preserve">task </t>
   </si>
   <si>
-    <t xml:space="preserve">person</t>
+    <t>person</t>
   </si>
   <si>
     <t xml:space="preserve">1.Intégrer au package la fonction avec le gradient de couleurs (regarder si exemples acceptables dans buildex4package.R dans Dropbox\Micro-ERA\second_paper\DRomics_interpretation\Rscripts_metabolo\version3 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.Faire une fonction pour la représentation de la distribution de sensibilité des pathways</t>
+    <t>2.Faire une fonction pour la représentation de la distribution de sensibilité des pathways</t>
   </si>
   <si>
     <t xml:space="preserve">3.Inclure dans le package des exemples d’utilisation des fonctions d’aide à l’interprétation. Avec quel jeu de données annotés ? métabolo (changer jeu de données métabolo pour prendre le dernier – pas la peine) </t>
   </si>
   <si>
-    <t xml:space="preserve">4.Ajouter un check sur le nom des colonnes dans curvesplot et ecfplotwithdrcgradient</t>
+    <t>4.Ajouter un check sur le nom des colonnes dans curvesplot et ecfplotwithdrcgradient</t>
   </si>
   <si>
     <t xml:space="preserve">5.Corriger la gestion des NA dans drcfit (cf. données photosynthesis Diuron). Gérer ligne 77 de drcfit et la suite (pb quand on récupère les résidus qui ne sont pas de la même longueur que les rangs des observations). Vérifier que cela ne pose pas de souci avant. </t>
   </si>
   <si>
-    <t xml:space="preserve">6.changer divers détails sur shiny et package (couleur gradient, xlab gradient plot = BMD et non x, shapey changé en nom plus parlant (ex. mis dans la vigentte avec labs(shape = "")</t>
+    <t>6.changer divers détails sur shiny et package (couleur gradient, xlab gradient plot = BMD et non x, shapey changé en nom plus parlant (ex. mis dans la vigentte avec labs(shape = "")</t>
   </si>
   <si>
     <t xml:space="preserve">7.ajouter un argument nfirstitems dans print.itemselect + ligne de code pour les récupérer tous en exemple </t>
   </si>
   <si>
-    <t xml:space="preserve">8.Faire une fonction continuousanchoringdata</t>
+    <t>8.Faire une fonction continuousanchoringdata</t>
   </si>
   <si>
     <t xml:space="preserve">9.Faire une fonction continuousomicdata </t>
   </si>
   <si>
-    <t xml:space="preserve">10.Ecrire une vignette en .Rmd sur la base de la page d’aide DRomics.Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.Mettre dans le package un argument pour choisir entre AIC et BIC (voir si cela change quelque chose sur robustesse jeu de données IRSN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.Mettre dans une autre sortie les items sélectionnés mais non modélisés</t>
+    <t>10.Ecrire une vignette en .Rmd sur la base de la page d’aide DRomics.Rd</t>
+  </si>
+  <si>
+    <t>11.Mettre dans le package un argument pour choisir entre AIC et BIC (voir si cela change quelque chose sur robustesse jeu de données IRSN)</t>
+  </si>
+  <si>
+    <t>12.Mettre dans une autre sortie les items sélectionnés mais non modélisés</t>
   </si>
   <si>
     <t xml:space="preserve">13. Faire en sorte qu’on puisse mettre l’échelle de x en log sur les graphes </t>
   </si>
   <si>
-    <t xml:space="preserve">14. Faire une fonction qui plote des items avec ou sans fit suivant qu’un modèle a été fitté ou pas (y compris les non sélectionnés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. Ajouter dans l’appli shiny l’option continuousanchoringdata dans le step 1 et x_pseudo_log_transfo pour le plot du step 3</t>
+    <t>14. Faire une fonction qui plote des items avec ou sans fit suivant qu’un modèle a été fitté ou pas (y compris les non sélectionnés)</t>
+  </si>
+  <si>
+    <t>15. Ajouter dans l’appli shiny l’option continuousanchoringdata dans le step 1 et x_pseudo_log_transfo pour le plot du step 3</t>
   </si>
   <si>
     <r>
@@ -94,11 +98,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(visualize &lt;- FALSE # TRUE for manual tests with visualization of results)  à mettre comme dans fitdistrplus et mettre en entete des fichiers un nboot et nsample à des petites valeurs (ou grandes pour les changer en tests manuels : nbboot &lt;- 1001 ; nbboot &lt;- 10)</t>
+      <t>(visualize &lt;- FALSE # TRUE for manual tests with visualization of results)  à mettre comme dans fitdistrplus et mettre en entete des fichiers un nboot et nsample à des petites valeurs (ou grandes pour les changer en tests manuels : nbboot &lt;- 1001 ; nbboot &lt;- 10)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">17. Indiquer les items (ou avoir moyen de les retrouver) avec bmdplotwithgradient – mettre un exemple en utilisant les fonctionnalités actuelles FAIT avec add.label</t>
+    <t>17. Indiquer les items (ou avoir moyen de les retrouver) avec bmdplotwithgradient – mettre un exemple en utilisant les fonctionnalités actuelles FAIT avec add.label</t>
   </si>
   <si>
     <t xml:space="preserve">18. Mettre des exemples de graphes BMD en log à partir de Zhou sur les ex. du package + vignette </t>
@@ -119,7 +123,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -130,19 +134,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">21. Mettre un warning quand une seule ligne de données est entrée et indiquer qu’ils peuvent utiliser anchoringdata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. ajouter BMR below or above control value (demande de Stefan) – BMRposition above_control, below_control – au final ajout de BMR.zSD zt BMR.xfold ajoutées qui donnent l'info.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. Retravailler les sorties texte des print pour que lorsque l’on fait options(width = ??) ça fonctionne et retravailler la découpe des lignes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38. Remplacer tous les Gaussian error model par normal error model dans l’appli shiny et le package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39. Ajouter une fonction plotfit2pdf</t>
+    <t>21. Mettre un warning quand une seule ligne de données est entrée et indiquer qu’ils peuvent utiliser anchoringdata</t>
+  </si>
+  <si>
+    <t>22. ajouter BMR below or above control value (demande de Stefan) – BMRposition above_control, below_control – au final ajout de BMR.zSD zt BMR.xfold ajoutées qui donnent l'info.</t>
+  </si>
+  <si>
+    <t>34. Retravailler les sorties texte des print pour que lorsque l’on fait options(width = ??) ça fonctionne et retravailler la découpe des lignes.</t>
+  </si>
+  <si>
+    <t>38. Remplacer tous les Gaussian error model par normal error model dans l’appli shiny et le package</t>
+  </si>
+  <si>
+    <t>39. Ajouter une fonction plotfit2pdf</t>
   </si>
   <si>
     <r>
@@ -167,273 +171,255 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">41. dans shiny en step 2 mettre un bouton de récupération du vecteur des noms des items sélectionnés récupérables à partir de l’objet qu’on appelera s de sortie de itemselect par s$omicdata$item[s$selectindex]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42. dans shiny utiliser plotfit2pdf pour récupérer tous les plots du choix de l’utilisateur, en décalant l’ancien bouton de download des fits plus bas, juste au-dessus des plots, à droite des options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43. Ne pas ajuster les modèles à 5 par si nb de doses à 4 ou 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44. Programmation défensive sur nombre total de points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45. Ajouter l’AICc et voir son impact et peut-être le mettre en défaut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46. Refaire le tutoriel de l’appli shiny et peut-être le mettre ailleurs que dans le package. Réfléchir à un autre format plus facile à mettre à jour ; intégré à la vignette ? C'est ce qui a été fait au final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49. Ajouter un argument facetby2 à bmdplotwithgradient et curvesplot pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58. ajouter une fonction trendplot (cf. article diuron)</t>
+    <t>41. dans shiny en step 2 mettre un bouton de récupération du vecteur des noms des items sélectionnés récupérables à partir de l’objet qu’on appelera s de sortie de itemselect par s$omicdata$item[s$selectindex]</t>
+  </si>
+  <si>
+    <t>42. dans shiny utiliser plotfit2pdf pour récupérer tous les plots du choix de l’utilisateur, en décalant l’ancien bouton de download des fits plus bas, juste au-dessus des plots, à droite des options</t>
+  </si>
+  <si>
+    <t>43. Ne pas ajuster les modèles à 5 par si nb de doses à 4 ou 5</t>
+  </si>
+  <si>
+    <t>44. Programmation défensive sur nombre total de points</t>
+  </si>
+  <si>
+    <t>45. Ajouter l’AICc et voir son impact et peut-être le mettre en défaut</t>
+  </si>
+  <si>
+    <t>46. Refaire le tutoriel de l’appli shiny et peut-être le mettre ailleurs que dans le package. Réfléchir à un autre format plus facile à mettre à jour ; intégré à la vignette ? C'est ce qui a été fait au final</t>
+  </si>
+  <si>
+    <t>49. Ajouter un argument facetby2 à bmdplotwithgradient et curvesplot pour mettre un facteur en ligne et un en colonne avec facet_grid()</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>58. ajouter une fonction trendplot (cf. article diuron)</t>
   </si>
   <si>
     <t xml:space="preserve">32. Faire une cheat sheet de DRomics – recto à mettre sur site de DRomics </t>
   </si>
   <si>
-    <t xml:space="preserve">50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R. C'était déjà écrit. J'ai juste ajouté un passage à la ligne et l'ai mis aussi dans la cheat sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51. Ajouter keywords : dose response modelling, benchmark dose (BMD), environmental risk assessment, transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le readme du GitHub et sur le site web de DRomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A + ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54. Mettre un message si quelqu'un fixe minBMD plus grand que la plus petite conc non nulle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2 - j'ai fait une fonction bmdplot poru gérer cela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59. enlever l'argument sigmoid.model de drcfit (donc l'utilisation possible du modèle log_probit, mais sans l'enlever completement pour nous) car c'est de nature à perturber l'utilisateur qui croit qu'il eut choisir le modele (ex. Stefan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max (see 66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur de mettre à 0 les doses qu'ils considère correspondre au niveau de base (background) pour éviter que la BMD soit calculée par extrapolation san contrôle du modèle par les données à la dose 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
+    <t>50. Dans la vignette écrire plus explicitement qu’on peut rentrer le jeu de données directement en objet R. C'était déjà écrit. J'ai juste ajouté un passage à la ligne et l'ai mis aussi dans la cheat sheet.</t>
+  </si>
+  <si>
+    <t>51. Ajouter keywords : dose response modelling, benchmark dose (BMD), environmental risk assessment, transcriptomics, proteomics, metabolomics, toxicogenomics, multi-omics… dans le readme du GitHub et sur le site web de DRomics</t>
+  </si>
+  <si>
+    <t>A + ML</t>
+  </si>
+  <si>
+    <t>54. Mettre un message si quelqu'un fixe minBMD plus grand que la plus petite conc non nulle</t>
+  </si>
+  <si>
+    <t>57. ajout de labels au plot de bmdboot - impossible car dans ce step 5 on n'a pas l'annotation. Plutôt faire une fonction bmdplotwithCI qui appelle ECDFplotwithCI et donne la possibilité de mettre des labels, avec un facetby et un facetby2 - j'ai fait une fonction bmdplot poru gérer cela</t>
+  </si>
+  <si>
+    <t>58. programmation défensive sur toutes les fonctions avec extendedres en input (vérification que tousles arguments sont en colonne)</t>
+  </si>
+  <si>
+    <t>59. enlever l'argument sigmoid.model de drcfit (donc l'utilisation possible du modèle log_probit, mais sans l'enlever completement pour nous) car c'est de nature à perturber l'utilisateur qui croit qu'il eut choisir le modele (ex. Stefan)</t>
+  </si>
+  <si>
+    <t>27. Retravailler le line.size de bmdplotwithgradient: Aurélie a essayé  sans succès. On laisse tomber</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>66. éliminer en amont, avant comparason des AICs les pics qui dépassent la gamme du signal observé</t>
+  </si>
+  <si>
+    <t>53. tenter d'éviter les pbs de pics trop haut (ou trop bas) avec LGP notamment - contraindre largeur de la gaussienne à ne pas être trop petite par rapport à l'espace entre deux concentrations DIFFICILE ! Plutôt mettre un AIC infini si le pic dépasse le min ou le max (see 66)</t>
+  </si>
+  <si>
+    <t>64. sur les données in situ de type Rager 2017 avec les plus faibles doses loin du zéro. Si on n'a pas de dose à zéro, demander à l'utilisateur de mettre à 0 les doses qu'ils considère correspondre au niveau de base (background) pour éviter que la BMD soit calculée par extrapolation san contrôle du modèle par les données à la dose 0</t>
+  </si>
+  <si>
+    <t>67. tenter de fixer le f à 0 pour les modèles Gauss-probit et log-Gauss-probit, sans réajuster ou en réajustant à partir des mêmes valeurs, et garder le probit ou log-probit s'il est meilleur en AIC: réajustement systématique avec f = 0  du modèle si GP5p ou lGP5p et retenue du modèle simplifié sur critère d'information meilleur</t>
+  </si>
+  <si>
+    <t>60. add of the Rager in situ data set - est-ce raisonnable vu qu'on ne ressort rien avec un FDR raisonnable ?
 Prendre un sous-ensemble déjà trié sur le fold change par exemple (un peu triché !)
 NON : AJOUT d'un sous jeu de données d'Olivier en RNAseqinsitusample.txt + test des modifs in situ sur sa base</t>
   </si>
   <si>
-    <t xml:space="preserve">68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
+    <t>68. ajouter la possibilité d'ajouter sur le plot d'un drcfit les BMD en ajoutant un argument avec la sortie de bmdcalc voire même celle de bmdboot pour mettre les bornes des IC - done in plot.drcfit to do in plotfit2pdf</t>
+  </si>
+  <si>
+    <t>65. changer le nom adjpvalue en qvalue dans les sorties pour que ce soit plus clair !!! (pas clair la tricherie dans Rager 2017)
 Non car personne ne connait en ecotox, mais a mentionner dans l'aide - FAIT dans ade de itemselect</t>
   </si>
   <si>
-    <t xml:space="preserve">69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplicats par groupe
+    <t>69. mettre un warning ou interdire l'utilisation de l'anova si pas au moins 2 ou 3 réplicats par groupe
 interdire anova si trop de doses avec un seul réplicat (ex. superieur à 50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)
+    <t>63 regarder le souci avec l'échelle des y qui change d'une page à l'autre dans plotfit2pdf (en résidus si outliers ou non notamment)
 not possible -&gt; residuals calculated within the function called in the loop</t>
   </si>
   <si>
-    <t xml:space="preserve">74. corriger le passage en transparence dans sensitivityplot quand on a la médiane sans l'IC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73. intégrer la fonction selectgroups au package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML puis A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée - penser à mettre à jour informations_bmdcalc_results.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71. put an example to help the formating of data especially in a R object or write a function to do that from count matrix and dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82. Give an example to show how to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling using ComBat or ComBatseq from sva package (specified as suggested in the description as for parallel computation)</t>
+    <t>74. corriger le passage en transparence dans sensitivityplot quand on a la médiane sans l'IC</t>
+  </si>
+  <si>
+    <t>73. intégrer la fonction selectgroups au package</t>
+  </si>
+  <si>
+    <t>ML puis A</t>
+  </si>
+  <si>
+    <t>75. ajouter aux sorties de drcfit une colonne maxychange qui sera la diff max absolue entre y et t0 dans la gamme étudiée - penser à mettre à jour informations_bmdcalc_results.txt</t>
+  </si>
+  <si>
+    <t>71. put an example to help the formating of data especially in a R object or write a function to do that from count matrix and dose</t>
+  </si>
+  <si>
+    <t>82. Give an example to show how to eliminate batch effect (or another factor) or to take it into account with the selection and the modeling using ComBat or ComBatseq from sva package (specified as suggested in the description as for parallel computation)</t>
   </si>
   <si>
     <t xml:space="preserve">ML </t>
   </si>
   <si>
-    <t xml:space="preserve">61. ajouter l'argument range (à passer à boxplot) aux fonctions de plot des données importées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot cf. point 61 fait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76. modifier la fonction curvesplot et bmdplotwithgradient pour ajouter une normalisation sur maxydiff + option ajoutée à Shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79. modification of examples for DRomicsInterpreter by adding BMD_xfold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML +A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot (cf. fig vignette 3.3) - pb ggplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priorités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. Regarder si rlog et vst laissent les 0 à une valeur commune (ties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top priorités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. Trouver un sous jeu de données exemple ou on arrive à calculer les IC pour des courbes probit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trop complexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. Tester sur de mauvais jeux de données la programmation défensive faite sur les fonctions d’importation des données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. Ajouter une fonction proteomicdata avec ex. IRSN quand on aura un jeu de données avec assez de doses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. Retravailler le modèle sigmoide, Lprobit et Gausprobit avec e = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47. Utilisation du vartrend pour alerte : pb avec microarray very small sample data A DISCUTER AVEC ELISE !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans sensitivityplot() - A COMPLETER ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend - 
+    <t>61. ajouter l'argument range (à passer à boxplot) aux fonctions de plot des données importées</t>
+  </si>
+  <si>
+    <t>33. Changer par défaut la représentation des boxplots des données pour qu’elle soit moins lourde (pour le moment géré juste avec range passé dans le … de la fonction plot cf. point 61 fait</t>
+  </si>
+  <si>
+    <t>76. modifier la fonction curvesplot et bmdplotwithgradient pour ajouter une normalisation sur maxydiff + option ajoutée à Shiny</t>
+  </si>
+  <si>
+    <t>84. ajouter dans le package une fonction de visualisation de l'ensemble des données en ACP pour voir la cohérence et détecter d'éventuels outliers</t>
+  </si>
+  <si>
+    <t>79. modification of examples for DRomicsInterpreter by adding BMD_xfold</t>
+  </si>
+  <si>
+    <t>ML +A</t>
+  </si>
+  <si>
+    <t>83. try to make the size scale of nb_of_items print only integer values in sensitivityplot and trendplot (cf. fig vignette 3.3) - pb ggplot</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>priorités</t>
+  </si>
+  <si>
+    <t>23. Regarder si rlog et vst laissent les 0 à une valeur commune (ties)</t>
+  </si>
+  <si>
+    <t>top priorités</t>
+  </si>
+  <si>
+    <t>24. Trouver un sous jeu de données exemple ou on arrive à calculer les IC pour des courbes probit</t>
+  </si>
+  <si>
+    <t>trop complexe</t>
+  </si>
+  <si>
+    <t>25. Tester sur de mauvais jeux de données la programmation défensive faite sur les fonctions d’importation des données</t>
+  </si>
+  <si>
+    <t>26. Ajouter une fonction proteomicdata avec ex. IRSN quand on aura un jeu de données avec assez de doses</t>
+  </si>
+  <si>
+    <t>28. Donner diverses options d’un plot de sensibilité par pathway (boxplot, autre stat résumées…) – fonction englobante sensitivityplot  avec plusieurs groupes (ex. article diuron) en résolvant le pb de l'ordre des items - FAIT EN PARTIE - A VALIDER PAR FLORIANE ET ELISE</t>
+  </si>
+  <si>
+    <t>37. Retravailler le modèle sigmoide, Lprobit et Gausprobit avec e = 0</t>
+  </si>
+  <si>
+    <t>47. Utilisation du vartrend pour alerte : pb avec microarray very small sample data A DISCUTER AVEC ELISE !</t>
+  </si>
+  <si>
+    <t>48. Essayer de mettre le filtre sur les résidus meantrend) avant la sélection car parfois on doit enlever des items pour lesquels un des modèle allait. A DISCUTER AVCE ELISE !</t>
+  </si>
+  <si>
+    <t>52. Changer le jeu de données exemple RNAseq, mettre un de Gwinn avec plus de concentrations</t>
+  </si>
+  <si>
+    <t>55. Proposer une figure par groupe avec médiane et intervalle interquartile, ou moyenne et 2 SD ? + indice de similarité de forme ? FAIT en partie dans sensitivityplot() - A COMPLETER ?</t>
+  </si>
+  <si>
+    <t>56. faire un boostrap avec modèle libre pour avoir notamment l'incertitude sur la trend - 
 pas raisonnable - plutôt faire du LOO et donner comme indice le % de fois ou la même trend est donnés
 on est content si c'est 100%</t>
   </si>
   <si>
-    <t xml:space="preserve">62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié et réglé en partie par choix de la méthode de transfo à vst si nb samples &gt; 30 (cf. Love)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018) - too complex !!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots) - impossible - write a function sensitivitycalc that will be called internally by sensitivityplot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77. ajouter une fonction et calcul de correlation non signée 2 à 2 des courbes fittées DR au sein de chaque groupe et un graphe associé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML prototype in the share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78. ajouter une méthode de clustering type WGCNA basée sur cette pairwise unsigned correlation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80. find a way to give an example in the DRomicsInterpreter shiny app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85. add an example in the vignette where the need is obvious to work on log scale for bmdplot, sensitivity plot….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86. Add on the Dromics web page an introduction of the functions to help biological interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A et ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87. change the figs in the cheat sheet using new options, new terminolgy in coherence to the one adopted in DRomicsIntepreter (biological group, experimental level) and add new functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. Calculer une BMD bis de l’autre côté du contrôle ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. programmation défensive si nb d’items trop petit sur le plot de sensibilité par groupe –mais quoi faire exactement ? Quantile fait de l’interpolation linéaire et sort un résultat quoiqu’il arrive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. Regarder que faire avec des données de comptages de metabarcoding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. Voir ce qu’on peut faire avec des données CT de RTQPCR (2ème phase après screening RNAseq) – mettre commentaire sur échelle (log delta Ct ?) sur sur normalisation avec les gènes de ménage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester la robustesse des BMD à une dégradation du plan d’expérience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprendre un jeu de données de la littérature sur lequel une approche clustering a été utilisée et comparer avec notre approche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester FASTBMD et BMDExpress sur des jeux de données sans 0 et sans réplicat (OK sur DRomics)</t>
+    <t>62. ajouter un test sur les outliers pour les cas excessifs cf. transcripto rainettes 2018 (implémenter sur chaque item, dès la vérification des données, sans prendre en compte la dose-réponse, une détection basée sur le Z-score modifié de Iglewicz, B., &amp; Hoaglin, D. C. (1993). How to detect and handle outliers (Vol. 16). Asq Press. (1115 citations google scholar)) - cf. point 84 lié et réglé en partie par choix de la méthode de transfo à vst si nb samples &gt; 30 (cf. Love)</t>
+  </si>
+  <si>
+    <t>70. look at the problem of format of the last page of the pdf file with the argument BMDoutput (cf. ex. transcripto 2018) - too complex !!!</t>
+  </si>
+  <si>
+    <t>72. Transform sensitivityplot to return as an invisible object the numerical summaries and to do other plots (boxplots) - impossible - write a function sensitivitycalc that will be called internally by sensitivityplot</t>
+  </si>
+  <si>
+    <t>77. ajouter une fonction et calcul de correlation non signée 2 à 2 des courbes fittées DR au sein de chaque groupe et un graphe associé</t>
+  </si>
+  <si>
+    <t>ML prototype in the share</t>
+  </si>
+  <si>
+    <t>78. ajouter une méthode de clustering type WGCNA basée sur cette pairwise unsigned correlation</t>
+  </si>
+  <si>
+    <t>80. find a way to give an example in the DRomicsInterpreter shiny app</t>
+  </si>
+  <si>
+    <t>81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
+  </si>
+  <si>
+    <t>85. add an example in the vignette where the need is obvious to work on log scale for bmdplot, sensitivity plot….</t>
+  </si>
+  <si>
+    <t>A et ML</t>
+  </si>
+  <si>
+    <t>87. change the figs in the cheat sheet using new options, new terminolgy in coherence to the one adopted in DRomicsIntepreter (biological group, experimental level) and add new functions</t>
+  </si>
+  <si>
+    <t>29. Faire une deuxième appli shiny prenant en entrée l’annotation et une sortie de workflow</t>
+  </si>
+  <si>
+    <t>30. Calculer une BMD bis de l’autre côté du contrôle ?</t>
+  </si>
+  <si>
+    <t>31. programmation défensive si nb d’items trop petit sur le plot de sensibilité par groupe –mais quoi faire exactement ? Quantile fait de l’interpolation linéaire et sort un résultat quoiqu’il arrive</t>
+  </si>
+  <si>
+    <t>35. Regarder que faire avec des données de comptages de metabarcoding</t>
+  </si>
+  <si>
+    <t>36. Voir ce qu’on peut faire avec des données CT de RTQPCR (2ème phase après screening RNAseq) – mettre commentaire sur échelle (log delta Ct ?) sur sur normalisation avec les gènes de ménage.</t>
+  </si>
+  <si>
+    <t>Tester la robustesse des BMD à une dégradation du plan d’expérience</t>
+  </si>
+  <si>
+    <t>Reprendre un jeu de données de la littérature sur lequel une approche clustering a été utilisée et comparer avec notre approche</t>
+  </si>
+  <si>
+    <t>Tester FASTBMD et BMDExpress sur des jeux de données sans 0 et sans réplicat (OK sur DRomics)</t>
+  </si>
+  <si>
+    <t>86. Add on the Dromics web page an introduction of the functions to help biological interpretation (and sva intsallation? Not sure as it is just suggested)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,7 +429,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -484,136 +470,79 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -672,196 +601,470 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="113.72"/>
+    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -869,15 +1072,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" s="6" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -885,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -893,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -901,7 +1104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -909,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -917,7 +1120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -925,7 +1128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -933,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
@@ -941,7 +1144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -949,71 +1152,71 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1021,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -1029,7 +1232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -1037,7 +1240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -1045,7 +1248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -1053,7 +1256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -1061,12 +1264,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -1074,7 +1277,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -1082,7 +1285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -1090,7 +1293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:2" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
@@ -1099,82 +1302,74 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="126.54"/>
+    <col min="1" max="1" width="126.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
@@ -1182,54 +1377,54 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" s="16" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -1237,7 +1432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="true" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -1245,7 +1440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>88</v>
       </c>
@@ -1253,7 +1448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
@@ -1261,156 +1456,134 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78"/>
+    <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="110.18"/>
+    <col min="1" max="1" width="110.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub_DRomics\DRomics\share\techdoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C305B2-9CDC-4423-92EE-FE7449C92BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="4005" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="done" sheetId="1" r:id="rId1"/>
@@ -406,13 +407,13 @@
     <t>Tester FASTBMD et BMDExpress sur des jeux de données sans 0 et sans réplicat (OK sur DRomics)</t>
   </si>
   <si>
-    <t>86. Add on the Dromics web page an introduction of the functions to help biological interpretation (and sva intsallation? Not sure as it is just suggested)</t>
+    <t>86. Add on the Dromics web page an introduction of the functions to help biological interpretation (and sva intsallation - no need just suggested )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +538,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,19 +889,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A66" sqref="A66:B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="113.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,167 +909,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
@@ -1088,7 +1093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1120,7 +1125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
@@ -1144,7 +1149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1152,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
@@ -1264,12 +1269,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
@@ -1277,7 +1282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
@@ -1293,12 +1298,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1308,19 +1321,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="126.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="126.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
@@ -1331,7 +1344,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
@@ -1377,22 +1390,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>83</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -1440,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>88</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>91</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
@@ -1480,19 +1493,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1503,19 +1508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1523,27 +1528,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1555,29 +1560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="110.140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="110.1796875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>103</v>
       </c>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C305B2-9CDC-4423-92EE-FE7449C92BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B24045-7427-43BB-9A66-D16B0023926C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>86. Add on the Dromics web page an introduction of the functions to help biological interpretation (and sva intsallation - no need just suggested )</t>
+  </si>
+  <si>
+    <t>88. change the examples of DRomics data results (triclosan) to ass the column yatdosemax</t>
   </si>
 </sst>
 </file>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:B66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,6 +1315,14 @@
       </c>
       <c r="B66" s="21" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1493,12 +1504,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B24045-7427-43BB-9A66-D16B0023926C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9814E2B-387D-43D2-9830-C43980609262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>88. change the examples of DRomics data results (triclosan) to ass the column yatdosemax</t>
+  </si>
+  <si>
+    <t>89. change the default for log scale in each plot (fit or BMD) - log if max/min &gt; 100 and get this default choice in the Shiny app.</t>
+  </si>
+  <si>
+    <t>ML and A</t>
+  </si>
+  <si>
+    <t>90. add an explaination of minBMD and or a option to define it in Shiny</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +481,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -500,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -545,6 +560,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,6 +1526,22 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9814E2B-387D-43D2-9830-C43980609262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022A01E-B8EE-4EDD-883C-8634AB2C71AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -413,13 +413,22 @@
     <t>88. change the examples of DRomics data results (triclosan) to ass the column yatdosemax</t>
   </si>
   <si>
-    <t>89. change the default for log scale in each plot (fit or BMD) - log if max/min &gt; 100 and get this default choice in the Shiny app.</t>
-  </si>
-  <si>
     <t>ML and A</t>
   </si>
   <si>
     <t>90. add an explaination of minBMD and or a option to define it in Shiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89. change the default for log scale in each plot (fit or BMD) - log if max/min &gt; 100 and get this default choice in the Shiny app.
+Think more about the best way yo do that. 
+Not so easy to define the good scale just from the ratio
+Is it a pb to put in log scale by default ?
+necessary to give exeamples of the difference in the vignette of a FAQ
+why not give twice on the shiny app. and let the user decidefrom the two plots (for fits for example)
+</t>
+  </si>
+  <si>
+    <t>ML, E  and A</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1364,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1528,20 +1537,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1022A01E-B8EE-4EDD-883C-8634AB2C71AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353563AC-BA71-41C6-AC72-4252B27F364D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -371,9 +371,6 @@
     <t>80. find a way to give an example in the DRomicsInterpreter shiny app</t>
   </si>
   <si>
-    <t>81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier elimination as in the paper</t>
-  </si>
-  <si>
     <t>85. add an example in the vignette where the need is obvious to work on log scale for bmdplot, sensitivity plot….</t>
   </si>
   <si>
@@ -416,7 +413,10 @@
     <t>ML and A</t>
   </si>
   <si>
-    <t>90. add an explaination of minBMD and or a option to define it in Shiny</t>
+    <t>ML, E  and A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81. add Danio rerio data in the package as another example for the functions for Dromics results interpretation (without enrichment and/or with outlier - elimination as in the paper ( IRSN) ou un autre ex. </t>
   </si>
   <si>
     <t xml:space="preserve">89. change the default for log scale in each plot (fit or BMD) - log if max/min &gt; 100 and get this default choice in the Shiny app.
@@ -425,10 +425,17 @@
 Is it a pb to put in log scale by default ?
 necessary to give exeamples of the difference in the vignette of a FAQ
 why not give twice on the shiny app. and let the user decidefrom the two plots (for fits for example)
+OU PLUS RADICAL ET PLUS SIMPLE? ON MET PAR DEFAUT EN LOG
 </t>
   </si>
   <si>
-    <t>ML, E  and A</t>
+    <t>90. add an explaination of minBMD and or an option to define it in Shiny</t>
+  </si>
+  <si>
+    <t>91. Ajouter des métriques en sortie de DRomics pour utilisation potentielle en interprétation (cf. M2 Ellis, …)</t>
+  </si>
+  <si>
+    <t>92. Ajouter deux sous-niveaux dans la vignette à laquelle on accède depuis GitHub</t>
   </si>
 </sst>
 </file>
@@ -921,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A68" sqref="A68:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1339,18 +1346,26 @@
     </row>
     <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,47 +1491,47 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>91</v>
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
@@ -1525,32 +1540,40 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A20" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>106</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1582,27 +1605,27 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1626,17 +1649,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/share/techdoc/DRomicsTODOlist.xlsx
+++ b/share/techdoc/DRomicsTODOlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeligne\Documents\GitHub\DRomics\share\techdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353563AC-BA71-41C6-AC72-4252B27F364D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9770C0DA-8CD4-43DD-AC8F-85D528DA5C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="4010" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t xml:space="preserve">task </t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>92. Ajouter deux sous-niveaux dans la vignette à laquelle on accède depuis GitHub</t>
+  </si>
+  <si>
+    <t>93. gérer le souci des décimales dans le sensitivityplot (taille de points) à partir d'ex. Ellis (pas de souci vu par Aurélie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94. dans les curvesplot en option ajouter un point là où la BMD est atteinte </t>
+  </si>
+  <si>
+    <t>ML et A</t>
+  </si>
+  <si>
+    <t>95. visualisation optionnelle par lignes verticales des doses testées (tous les graphes avec la dose en x)</t>
+  </si>
+  <si>
+    <t>96. ajouter dans vignette ou FAQ ex.d'utilisation de l'option "median.and.IQR"</t>
   </si>
 </sst>
 </file>
@@ -466,7 +481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +518,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -531,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -580,6 +601,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,6 +1599,33 @@
       </c>
       <c r="B24" s="23" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
